--- a/data/pca/factorExposure/factorExposure_2013-04-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-09.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001198925621540746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00191545619935858</v>
+      </c>
+      <c r="C2">
+        <v>-0.03311808532235277</v>
+      </c>
+      <c r="D2">
+        <v>-0.001634922031012593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001997018843531197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005898415708962588</v>
+      </c>
+      <c r="C4">
+        <v>-0.08620605026022601</v>
+      </c>
+      <c r="D4">
+        <v>-0.07732368642389827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001013722465323354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01331758473215729</v>
+      </c>
+      <c r="C6">
+        <v>-0.1107749709939243</v>
+      </c>
+      <c r="D6">
+        <v>-0.03238380171242617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001983515253800994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004625251622012581</v>
+      </c>
+      <c r="C7">
+        <v>-0.05632933466955407</v>
+      </c>
+      <c r="D7">
+        <v>-0.03082158423848767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0001566168756389291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005596898724364029</v>
+      </c>
+      <c r="C8">
+        <v>-0.0379705972835567</v>
+      </c>
+      <c r="D8">
+        <v>-0.04080586851665598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003958231598267203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004044631699753229</v>
+      </c>
+      <c r="C9">
+        <v>-0.07213227001617535</v>
+      </c>
+      <c r="D9">
+        <v>-0.07016243996625912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004193562976102198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005234449766198654</v>
+      </c>
+      <c r="C10">
+        <v>-0.06041799045038053</v>
+      </c>
+      <c r="D10">
+        <v>0.2030321363794823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00344886696558793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005239067349729833</v>
+      </c>
+      <c r="C11">
+        <v>-0.0812164838018101</v>
+      </c>
+      <c r="D11">
+        <v>-0.06022465442873385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-3.512417307041085e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003857845534216525</v>
+      </c>
+      <c r="C12">
+        <v>-0.06448072521583423</v>
+      </c>
+      <c r="D12">
+        <v>-0.04598480138139124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00318813239328776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008461723813816959</v>
+      </c>
+      <c r="C13">
+        <v>-0.06700297769602563</v>
+      </c>
+      <c r="D13">
+        <v>-0.06500211322759075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001588181690407522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001427972432484042</v>
+      </c>
+      <c r="C14">
+        <v>-0.04693579437031489</v>
+      </c>
+      <c r="D14">
+        <v>-0.00842699381970784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001039537343880927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005889092424869296</v>
+      </c>
+      <c r="C15">
+        <v>-0.04285599296478525</v>
+      </c>
+      <c r="D15">
+        <v>-0.03026062973580377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001638994053200328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004856604515701171</v>
+      </c>
+      <c r="C16">
+        <v>-0.06679275377651335</v>
+      </c>
+      <c r="D16">
+        <v>-0.04566161878598072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001345950050278712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008771505465054888</v>
+      </c>
+      <c r="C20">
+        <v>-0.06818218131958223</v>
+      </c>
+      <c r="D20">
+        <v>-0.04846345068638681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00503770469760439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009813695503135522</v>
+      </c>
+      <c r="C21">
+        <v>-0.02370805089287962</v>
+      </c>
+      <c r="D21">
+        <v>-0.03458664564740434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01687115175755299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00707370850234568</v>
+      </c>
+      <c r="C22">
+        <v>-0.09513775831353585</v>
+      </c>
+      <c r="D22">
+        <v>-0.1011733423349891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01719440327001387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006887934979654568</v>
+      </c>
+      <c r="C23">
+        <v>-0.09600012488137311</v>
+      </c>
+      <c r="D23">
+        <v>-0.1015552598569694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002178710152256172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004874412168999139</v>
+      </c>
+      <c r="C24">
+        <v>-0.07528441567194577</v>
+      </c>
+      <c r="D24">
+        <v>-0.05890954820174652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004157563744734578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002641691620714488</v>
+      </c>
+      <c r="C25">
+        <v>-0.07886441015631808</v>
+      </c>
+      <c r="D25">
+        <v>-0.06359004826808401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006301081473054568</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003528527594096258</v>
+      </c>
+      <c r="C26">
+        <v>-0.04314260620133894</v>
+      </c>
+      <c r="D26">
+        <v>-0.02593785001627649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005765886240168879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001075782749202046</v>
+      </c>
+      <c r="C28">
+        <v>-0.1096180422174191</v>
+      </c>
+      <c r="D28">
+        <v>0.3178700651976464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001491212710123714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002963396656042212</v>
+      </c>
+      <c r="C29">
+        <v>-0.0496786743431725</v>
+      </c>
+      <c r="D29">
+        <v>-0.004519755559163117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00394237244243442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008631471164341979</v>
+      </c>
+      <c r="C30">
+        <v>-0.1437535942057024</v>
+      </c>
+      <c r="D30">
+        <v>-0.09895828592142297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-5.800161537490444e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006037111655511656</v>
+      </c>
+      <c r="C31">
+        <v>-0.04612590048101121</v>
+      </c>
+      <c r="D31">
+        <v>-0.03171259345548665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0007941524977631441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003892001825826379</v>
+      </c>
+      <c r="C32">
+        <v>-0.04086015317356081</v>
+      </c>
+      <c r="D32">
+        <v>-0.02049790046454701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003298328275981561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007850530325694853</v>
+      </c>
+      <c r="C33">
+        <v>-0.08667079358289302</v>
+      </c>
+      <c r="D33">
+        <v>-0.07224328163567742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004640491157980177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003667740974522152</v>
+      </c>
+      <c r="C34">
+        <v>-0.05812643007353226</v>
+      </c>
+      <c r="D34">
+        <v>-0.04719454820475061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002735379266766568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004669501351114269</v>
+      </c>
+      <c r="C35">
+        <v>-0.04041976957333127</v>
+      </c>
+      <c r="D35">
+        <v>-0.01257958562563558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004134533089678558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001384099818349015</v>
+      </c>
+      <c r="C36">
+        <v>-0.02568003578003864</v>
+      </c>
+      <c r="D36">
+        <v>-0.02077274347795351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001953852781553355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009405908793042754</v>
+      </c>
+      <c r="C38">
+        <v>-0.0347867756643364</v>
+      </c>
+      <c r="D38">
+        <v>-0.02047755650421512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0133824819764959</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001122667605265314</v>
+      </c>
+      <c r="C39">
+        <v>-0.1182184188104645</v>
+      </c>
+      <c r="D39">
+        <v>-0.07558123840940774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009628579810551477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001902833605906739</v>
+      </c>
+      <c r="C40">
+        <v>-0.08853610673118344</v>
+      </c>
+      <c r="D40">
+        <v>-0.009253482386316889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0004309964611584512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007119611069117017</v>
+      </c>
+      <c r="C41">
+        <v>-0.03800174677729849</v>
+      </c>
+      <c r="D41">
+        <v>-0.03569128752917509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003293656097238625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003432315190349785</v>
+      </c>
+      <c r="C43">
+        <v>-0.05108993334649228</v>
+      </c>
+      <c r="D43">
+        <v>-0.02534310150370363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003099773889927714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003281809828810336</v>
+      </c>
+      <c r="C44">
+        <v>-0.1144468451039915</v>
+      </c>
+      <c r="D44">
+        <v>-0.07182870085392125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001827113641104305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002264284943880274</v>
+      </c>
+      <c r="C46">
+        <v>-0.03628820797214017</v>
+      </c>
+      <c r="D46">
+        <v>-0.0266524538409672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0009305408665394767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002640750844582243</v>
+      </c>
+      <c r="C47">
+        <v>-0.03825243549592126</v>
+      </c>
+      <c r="D47">
+        <v>-0.02409663465597419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003177264107119982</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006323918572260076</v>
+      </c>
+      <c r="C48">
+        <v>-0.02969613127354854</v>
+      </c>
+      <c r="D48">
+        <v>-0.03187873767938403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01468319638280777</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01441597598315144</v>
+      </c>
+      <c r="C49">
+        <v>-0.181732215738911</v>
+      </c>
+      <c r="D49">
+        <v>-0.01243245670669492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001389938193691273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00344192187840686</v>
+      </c>
+      <c r="C50">
+        <v>-0.04468416193153773</v>
+      </c>
+      <c r="D50">
+        <v>-0.03465707910709316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001230602294960786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00424050315777957</v>
+      </c>
+      <c r="C51">
+        <v>-0.0252184036213346</v>
+      </c>
+      <c r="D51">
+        <v>-0.02251443330345407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.000317629575457271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0199028110382779</v>
+      </c>
+      <c r="C53">
+        <v>-0.1686998770808138</v>
+      </c>
+      <c r="D53">
+        <v>-0.03907296436287102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0008357002807559287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008618955087789511</v>
+      </c>
+      <c r="C54">
+        <v>-0.05738382674014463</v>
+      </c>
+      <c r="D54">
+        <v>-0.04097181131525078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003995729906234254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009041138492486243</v>
+      </c>
+      <c r="C55">
+        <v>-0.1089649173517594</v>
+      </c>
+      <c r="D55">
+        <v>-0.04586575755349619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002709157315892144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01939050991130045</v>
+      </c>
+      <c r="C56">
+        <v>-0.1759988814841</v>
+      </c>
+      <c r="D56">
+        <v>-0.03851254849195559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007719087097423472</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01913195800958043</v>
+      </c>
+      <c r="C58">
+        <v>-0.1081790081831926</v>
+      </c>
+      <c r="D58">
+        <v>-0.05367192323544136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007394646926645519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008727183241074681</v>
+      </c>
+      <c r="C59">
+        <v>-0.1579812138926882</v>
+      </c>
+      <c r="D59">
+        <v>0.3022581792925289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004707428246380784</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02300236600205656</v>
+      </c>
+      <c r="C60">
+        <v>-0.2229283750796268</v>
+      </c>
+      <c r="D60">
+        <v>-0.02273756696507938</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01491366464306141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002173191609130583</v>
+      </c>
+      <c r="C61">
+        <v>-0.0961030600238162</v>
+      </c>
+      <c r="D61">
+        <v>-0.05889088969588082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1704526303538191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1438220782749132</v>
+      </c>
+      <c r="C62">
+        <v>-0.08729646269538027</v>
+      </c>
+      <c r="D62">
+        <v>-0.04578426788178765</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001696900935442289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006222383275570531</v>
+      </c>
+      <c r="C63">
+        <v>-0.05817865707394387</v>
+      </c>
+      <c r="D63">
+        <v>-0.02529544548047705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005707918324552171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01472046216041723</v>
+      </c>
+      <c r="C64">
+        <v>-0.1052624582221998</v>
+      </c>
+      <c r="D64">
+        <v>-0.06015079528757146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001607916684150266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01701492791838401</v>
+      </c>
+      <c r="C65">
+        <v>-0.1189713529542401</v>
+      </c>
+      <c r="D65">
+        <v>-0.01674382964924856</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008798280498176879</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01215862236164276</v>
+      </c>
+      <c r="C66">
+        <v>-0.1599026435618286</v>
+      </c>
+      <c r="D66">
+        <v>-0.114924612134035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003308192268505955</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01543235017322078</v>
+      </c>
+      <c r="C67">
+        <v>-0.06519012655578979</v>
+      </c>
+      <c r="D67">
+        <v>-0.02958076651585512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006925014758059635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.000512602745246676</v>
+      </c>
+      <c r="C68">
+        <v>-0.08896757337737278</v>
+      </c>
+      <c r="D68">
+        <v>0.2498471010262795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002936902964614927</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005711129581190998</v>
+      </c>
+      <c r="C69">
+        <v>-0.0500831171615062</v>
+      </c>
+      <c r="D69">
+        <v>-0.03949419880615824</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>1.044842641375026e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001829080145208057</v>
+      </c>
+      <c r="C70">
+        <v>-0.002396472343100377</v>
+      </c>
+      <c r="D70">
+        <v>-0.000961645444378406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001606622849242548</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005775949336217699</v>
+      </c>
+      <c r="C71">
+        <v>-0.09918884610075673</v>
+      </c>
+      <c r="D71">
+        <v>0.2957237273800195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005791759229929622</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01516015268602753</v>
+      </c>
+      <c r="C72">
+        <v>-0.150024857121266</v>
+      </c>
+      <c r="D72">
+        <v>-0.02077887768294928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01216528298427092</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02874522549266644</v>
+      </c>
+      <c r="C73">
+        <v>-0.2742831773082638</v>
+      </c>
+      <c r="D73">
+        <v>-0.04910864057028048</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005131963305966956</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001066241296786896</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043812840784642</v>
+      </c>
+      <c r="D74">
+        <v>-0.04189651520845107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004077268515965604</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01051476065049258</v>
+      </c>
+      <c r="C75">
+        <v>-0.1319433474254516</v>
+      </c>
+      <c r="D75">
+        <v>-0.0256335516204261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009017845397323473</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02089186502275229</v>
+      </c>
+      <c r="C76">
+        <v>-0.1504502682023102</v>
+      </c>
+      <c r="D76">
+        <v>-0.06459673560448359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>8.098877925651586e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02396605093831752</v>
+      </c>
+      <c r="C77">
+        <v>-0.1351209868129246</v>
+      </c>
+      <c r="D77">
+        <v>-0.05440951787630056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00141403489783354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01408270687540477</v>
+      </c>
+      <c r="C78">
+        <v>-0.0941020506597554</v>
+      </c>
+      <c r="D78">
+        <v>-0.07029419957205568</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02417078914026894</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03671394497141575</v>
+      </c>
+      <c r="C79">
+        <v>-0.1580519430646544</v>
+      </c>
+      <c r="D79">
+        <v>-0.03048726462462444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004814064113600022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01033729142375829</v>
+      </c>
+      <c r="C80">
+        <v>-0.04176269698812141</v>
+      </c>
+      <c r="D80">
+        <v>-0.03168697679136394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0006658050548986121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01450435465854779</v>
+      </c>
+      <c r="C81">
+        <v>-0.1283006011144616</v>
+      </c>
+      <c r="D81">
+        <v>-0.04578890440539642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00527725165448241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01910589911041377</v>
+      </c>
+      <c r="C82">
+        <v>-0.1442692788820599</v>
+      </c>
+      <c r="D82">
+        <v>-0.04088684200112215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008911938226088783</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.00990418208398022</v>
+      </c>
+      <c r="C83">
+        <v>-0.05726349868275068</v>
+      </c>
+      <c r="D83">
+        <v>-0.05336302239333721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01250631199277145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01147607131872346</v>
+      </c>
+      <c r="C84">
+        <v>-0.03664597052111603</v>
+      </c>
+      <c r="D84">
+        <v>0.009131067501433741</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01488147487376958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02765620036636615</v>
+      </c>
+      <c r="C85">
+        <v>-0.1318227649994916</v>
+      </c>
+      <c r="D85">
+        <v>-0.04266060020241369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001290818949036168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005345938415500641</v>
+      </c>
+      <c r="C86">
+        <v>-0.05001869790291019</v>
+      </c>
+      <c r="D86">
+        <v>-0.01924177301872366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005938315321940288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01002132945889974</v>
+      </c>
+      <c r="C87">
+        <v>-0.1319378106209455</v>
+      </c>
+      <c r="D87">
+        <v>-0.06632686812783098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01347366393316574</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003115265617166186</v>
+      </c>
+      <c r="C88">
+        <v>-0.06736410260536198</v>
+      </c>
+      <c r="D88">
+        <v>-0.0127726636152423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0156433738505116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001818755899380417</v>
+      </c>
+      <c r="C89">
+        <v>-0.1467953641381564</v>
+      </c>
+      <c r="D89">
+        <v>0.3506524259624036</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003125551793834956</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00656382458631654</v>
+      </c>
+      <c r="C90">
+        <v>-0.123017206904651</v>
+      </c>
+      <c r="D90">
+        <v>0.3224561273892966</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006036502366609709</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009987605625741082</v>
+      </c>
+      <c r="C91">
+        <v>-0.103695855950211</v>
+      </c>
+      <c r="D91">
+        <v>-0.02198712489692107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008936032598741941</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0001783826651290167</v>
+      </c>
+      <c r="C92">
+        <v>-0.1367871634736932</v>
+      </c>
+      <c r="D92">
+        <v>0.3387164533521543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001138767855135822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004530310412845666</v>
+      </c>
+      <c r="C93">
+        <v>-0.1063333013740529</v>
+      </c>
+      <c r="D93">
+        <v>0.3165425796880313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003073304922296273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02198605598857357</v>
+      </c>
+      <c r="C94">
+        <v>-0.1549161466661444</v>
+      </c>
+      <c r="D94">
+        <v>-0.04431296813867246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005020759614372103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01578842858703005</v>
+      </c>
+      <c r="C95">
+        <v>-0.1271059982810441</v>
+      </c>
+      <c r="D95">
+        <v>-0.06064260363879796</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001948096394990464</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03364064443746027</v>
+      </c>
+      <c r="C97">
+        <v>-0.1883406169001383</v>
+      </c>
+      <c r="D97">
+        <v>-0.01132393966115955</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004319098493398086</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03574484893195771</v>
+      </c>
+      <c r="C98">
+        <v>-0.2503116725298397</v>
+      </c>
+      <c r="D98">
+        <v>-0.04827800192098514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9833548018569082</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828838168678536</v>
+      </c>
+      <c r="C99">
+        <v>0.1103133646714082</v>
+      </c>
+      <c r="D99">
+        <v>0.0274102771338954</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001448874953515988</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003007088837981958</v>
+      </c>
+      <c r="C101">
+        <v>-0.04970448065511131</v>
+      </c>
+      <c r="D101">
+        <v>-0.004968608029347968</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
